--- a/SIAE/SNW/Reportes/PruebaInterferencia.xlsx
+++ b/SIAE/SNW/Reportes/PruebaInterferencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvin Salinas\Desktop\Proyectos\SIAE\FUENTES\SIAE\SNW\Reportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\ProyectoSIAE\SIAE\SNW\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{29CE5DCE-EBBA-4219-ABE6-AA7FB03FA227}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Selección de Frecuencia" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -510,10 +511,38 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_CALCULO LONGITUD DE ALIMENTADOR" xfId="1"/>
+    <cellStyle name="Normal_CALCULO LONGITUD DE ALIMENTADOR" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D9A492C9-D9A6-485B-B625-F79E990C71E0}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF00B015"/>
@@ -762,54 +791,6 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28161</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>828261</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1043609</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="392596" y="3834490"/>
-          <a:ext cx="6622774" cy="3768945"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1145,11 +1126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P478"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" customHeight="1" zeroHeight="1"/>
@@ -1386,7 +1367,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14" s="7" customFormat="1">
+    <row r="21" spans="3:14" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="C21" s="38"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -1428,7 +1409,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" ht="12" customHeight="1">
       <c r="C24" s="38"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
